--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T08:26:49+00:00</t>
+    <t>2022-09-16T09:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T09:34:57+00:00</t>
+    <t>2022-09-16T10:00:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:00:28+00:00</t>
+    <t>2022-09-16T10:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:16:44+00:00</t>
+    <t>2022-09-16T10:20:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:20:04+00:00</t>
+    <t>2022-09-16T10:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:34:10+00:00</t>
+    <t>2022-09-16T10:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -674,7 +674,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>day</t>
+    <t>日</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T10:56:00+00:00</t>
+    <t>2022-09-16T13:17:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1368,7 +1368,7 @@
     <t>doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1421,6 +1421,12 @@
   <si>
     <t xml:space="preserve">Ratio
 </t>
+  </si>
+  <si>
+    <t>薬剤の投与量速度</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量の速度</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -1464,10 +1470,26 @@
 </t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
+    <t>範囲指定された時間の上限下限</t>
   </si>
   <si>
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1484,10 +1506,6 @@
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
@@ -1809,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK82"/>
+  <dimension ref="A1:AK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9895,16 +9913,16 @@
         <v>454</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -9966,10 +9984,10 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78">
@@ -9977,7 +9995,7 @@
         <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>74</v>
@@ -9999,19 +10017,19 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10072,10 +10090,10 @@
         <v>442</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>122</v>
@@ -10086,7 +10104,7 @@
         <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>74</v>
@@ -10108,19 +10126,19 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10192,9 +10210,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="C80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10215,19 +10235,19 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10276,7 +10296,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10288,18 +10308,18 @@
         <v>442</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>122</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10322,19 +10342,19 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10383,7 +10403,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10395,18 +10415,18 @@
         <v>442</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>445</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10429,19 +10449,19 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10490,7 +10510,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10508,6 +10528,113 @@
         <v>444</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>445</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:17:21+00:00</t>
+    <t>2022-09-16T14:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:04:42+00:00</t>
+    <t>2022-09-16T14:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:54:21+00:00</t>
+    <t>2022-09-17T07:20:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:20:02+00:00</t>
+    <t>2022-09-17T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T07:33:19+00:00</t>
+    <t>2022-09-17T08:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:22:44+00:00</t>
+    <t>2022-09-17T08:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T08:55:39+00:00</t>
+    <t>2022-09-17T09:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T09:03:50+00:00</t>
+    <t>2022-09-17T13:53:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T13:53:57+00:00</t>
+    <t>2022-09-17T14:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T14:19:17+00:00</t>
+    <t>2022-09-17T23:11:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:11:52+00:00</t>
+    <t>2022-09-17T23:36:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:36:21+00:00</t>
+    <t>2022-09-17T23:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:49:46+00:00</t>
+    <t>2022-09-17T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-17T23:51:36+00:00</t>
+    <t>2022-09-18T01:43:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T01:43:09+00:00</t>
+    <t>2022-09-18T02:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T02:15:16+00:00</t>
+    <t>2022-09-18T06:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-18T06:24:36+00:00</t>
+    <t>2022-09-18T06:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T06:50:03+00:00</t>
+    <t>2022-09-19T07:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:12:17+00:00</t>
+    <t>2022-09-19T07:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T07:34:45+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -1390,23 +1390,34 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Quantity
-Range</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
-    <t>RXO-2, RXE-3</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>doseQuantity</t>
@@ -1423,48 +1434,11 @@
 【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1507,19 +1481,6 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
-</t>
-  </si>
-  <si>
-    <t>範囲指定された時間の上限下限</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
-  </si>
-  <si>
     <t>rateQuantity</t>
   </si>
   <si>
@@ -1527,13 +1488,7 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>投与速度(量/時間)を指定する</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1871,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK89"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10260,7 +10215,7 @@
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>446</v>
@@ -10331,16 +10286,16 @@
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
@@ -10348,7 +10303,7 @@
         <v>445</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>74</v>
@@ -10370,16 +10325,16 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>450</v>
@@ -10440,25 +10395,23 @@
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>74</v>
       </c>
@@ -10476,13 +10429,13 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>462</v>
@@ -10491,7 +10444,7 @@
         <v>463</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10528,19 +10481,17 @@
         <v>74</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10549,10 +10500,10 @@
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>465</v>
@@ -10563,9 +10514,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>74</v>
       </c>
@@ -10583,7 +10536,7 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>468</v>
@@ -10592,13 +10545,13 @@
         <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>74</v>
@@ -10635,17 +10588,19 @@
         <v>74</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB83" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10654,24 +10609,24 @@
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>474</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>74</v>
@@ -10693,19 +10648,19 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>74</v>
@@ -10754,7 +10709,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -10763,25 +10718,23 @@
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>117</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>74</v>
       </c>
@@ -10802,19 +10755,19 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10863,7 +10816,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10872,25 +10825,23 @@
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>466</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>74</v>
       </c>
@@ -10911,19 +10862,19 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10972,7 +10923,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10981,21 +10932,21 @@
         <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11018,19 +10969,19 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11079,7 +11030,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11088,230 +11039,16 @@
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -331,7 +331,7 @@
     <t>periodOfUse</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_PeriodOfUse}
 </t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>usageDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_UsageDuration}
 </t>
   </si>
   <si>
@@ -1438,7 +1438,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity</t>
+RangeQuantity</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1481,6 +1481,29 @@
     <t>RTO</t>
   </si>
   <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
+</t>
+  </si>
+  <si>
+    <t>範囲指定された時間の上限下限</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
     <t>rateQuantity</t>
   </si>
   <si>
@@ -1498,7 +1521,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量</t>
+    <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1507,7 +1530,7 @@
     <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+    <t>1回あたりの投薬量の上限</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1517,6 +1540,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
+  </si>
+  <si>
+    <t>生涯の投薬量の上限</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
@@ -1826,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK87"/>
+  <dimension ref="A1:AK88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10657,7 +10683,7 @@
         <v>475</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>464</v>
@@ -10721,20 +10747,22 @@
         <v>451</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>74</v>
       </c>
@@ -10755,19 +10783,19 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10816,7 +10844,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10828,18 +10856,18 @@
         <v>451</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>117</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10862,19 +10890,19 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10923,7 +10951,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10935,18 +10963,18 @@
         <v>451</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10972,16 +11000,16 @@
         <v>456</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11030,7 +11058,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11048,6 +11076,113 @@
         <v>453</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>454</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -417,7 +417,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>RXO-6; RXE-21</t>
@@ -1042,7 +1042,7 @@
     <t>投与経路</t>
   </si>
   <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+    <t>投与経路の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
@@ -1135,7 +1135,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1375,7 +1375,7 @@
     <t>力価区分</t>
   </si>
   <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>投与速度・量の一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルは内服用法の制約と拡張のうち共通部分を定めている。</t>
+    <t>このデータタイプは内服用法の制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -315,19 +315,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>dosageComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_DosageComment}
-</t>
-  </si>
-  <si>
-    <t>用法コメント</t>
-  </si>
-  <si>
-    <t>用法コメントを格納するための拡張</t>
-  </si>
-  <si>
     <t>periodOfUse</t>
   </si>
   <si>
@@ -1058,26 +1045,40 @@
     <t>RXR-1</t>
   </si>
   <si>
-    <t>Dosage.route.id</t>
-  </si>
-  <si>
-    <t>Dosage.route.extension</t>
-  </si>
-  <si>
-    <t>routeComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RouteComment}
-</t>
-  </si>
-  <si>
-    <t>投与経路コメント</t>
-  </si>
-  <si>
-    <t>投与経路コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.route.coding</t>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -1096,92 +1097,19 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Dosage.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>methodComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_MethodComment}
-</t>
-  </si>
-  <si>
-    <t>手技コメント</t>
-  </si>
-  <si>
-    <t>手技コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
     <t>unitDigit1</t>
   </si>
   <si>
@@ -1338,6 +1266,15 @@
     <t>Dosage.method.text</t>
   </si>
   <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate</t>
   </si>
   <si>
@@ -1354,19 +1291,6 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDosage_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -1852,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK88"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1862,7 +1786,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2339,7 +2263,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -2536,41 +2460,43 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s" s="2">
         <v>106</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
       </c>
@@ -2618,7 +2544,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2633,7 +2559,7 @@
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2641,42 +2567,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
@@ -2725,30 +2651,30 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2768,22 +2694,22 @@
         <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -2832,7 +2758,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2847,15 +2773,15 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2866,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -2875,22 +2801,22 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2915,13 +2841,11 @@
         <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>74</v>
@@ -2939,13 +2863,13 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -2954,15 +2878,15 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2973,7 +2897,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2982,23 +2906,21 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -3022,11 +2944,13 @@
         <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X11" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y11" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>74</v>
@@ -3044,13 +2968,13 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -3059,10 +2983,10 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -3087,13 +3011,13 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>143</v>
@@ -3101,7 +3025,9 @@
       <c r="M12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -3164,15 +3090,15 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3195,20 +3121,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3256,7 +3178,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3268,29 +3190,29 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -3302,15 +3224,17 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -3347,31 +3271,31 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>86</v>
@@ -3382,11 +3306,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3399,24 +3323,26 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
       </c>
@@ -3452,19 +3378,19 @@
         <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3479,7 +3405,7 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -3487,11 +3413,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3504,25 +3430,23 @@
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3571,7 +3495,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3583,10 +3507,10 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3594,7 +3518,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3605,7 +3529,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3614,20 +3538,20 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3676,22 +3600,22 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3699,7 +3623,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3719,21 +3643,19 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3781,7 +3703,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3793,10 +3715,10 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3804,18 +3726,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3827,15 +3749,17 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3872,31 +3796,31 @@
         <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>86</v>
@@ -3907,18 +3831,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3927,20 +3851,18 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3977,34 +3899,32 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -4012,9 +3932,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4032,16 +3954,16 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4080,17 +4002,19 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4105,7 +4029,7 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -4113,11 +4037,9 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4135,16 +4057,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4195,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4207,10 +4129,10 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -4218,18 +4140,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4241,15 +4163,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4286,31 +4210,31 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>86</v>
@@ -4321,18 +4245,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4341,21 +4265,23 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4391,42 +4317,42 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4443,30 +4369,30 @@
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4486,13 +4412,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4510,7 +4436,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4525,15 +4451,15 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4550,32 +4476,30 @@
         <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P26" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>74</v>
@@ -4593,13 +4517,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4617,7 +4541,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4632,15 +4556,15 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4660,27 +4584,27 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>74</v>
@@ -4722,7 +4646,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4731,21 +4655,21 @@
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4765,27 +4689,29 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4827,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4836,21 +4762,21 @@
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4870,29 +4796,29 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -4934,7 +4860,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4949,15 +4875,15 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4977,23 +4903,21 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5041,7 +4965,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5056,7 +4980,7 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5064,7 +4988,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5084,21 +5008,23 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5146,7 +5072,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5161,7 +5087,7 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5169,7 +5095,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5189,22 +5115,22 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5253,7 +5179,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5268,7 +5194,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5296,10 +5222,10 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>248</v>
@@ -5308,11 +5234,9 @@
         <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5336,13 +5260,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5360,7 +5284,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5375,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5383,7 +5307,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5403,25 +5327,27 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5441,13 +5367,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5465,7 +5391,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5480,7 +5406,7 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5488,7 +5414,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5508,27 +5434,25 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5587,7 +5511,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5615,10 +5539,10 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>265</v>
@@ -5627,7 +5551,7 @@
         <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5677,7 +5601,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5692,7 +5616,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5700,7 +5624,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5720,19 +5644,19 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5782,7 +5706,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5797,7 +5721,7 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5805,7 +5729,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5825,19 +5749,19 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5863,13 +5787,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5887,7 +5811,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5902,7 +5826,7 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5910,7 +5834,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5921,7 +5845,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5930,19 +5854,19 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5968,13 +5892,11 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -5992,13 +5914,13 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -6007,7 +5929,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6015,7 +5937,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6035,19 +5957,19 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6073,11 +5995,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6095,7 +6019,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6118,7 +6042,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6138,21 +6062,23 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6176,13 +6102,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6200,7 +6126,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6215,7 +6141,7 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6223,7 +6149,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6234,7 +6160,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6243,23 +6169,21 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6283,13 +6207,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6307,13 +6231,13 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6322,7 +6246,7 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6330,7 +6254,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6350,19 +6274,19 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6388,13 +6312,11 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6412,7 +6334,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6427,7 +6349,7 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6435,7 +6357,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6455,19 +6377,19 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6493,11 +6415,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6515,7 +6439,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6530,15 +6454,15 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6558,21 +6482,23 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6596,13 +6522,11 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6620,7 +6544,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6635,15 +6559,15 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6663,22 +6587,22 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6703,11 +6627,11 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6649,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6740,15 +6664,15 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6768,22 +6692,22 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6808,11 +6732,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6830,7 +6756,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6845,15 +6771,15 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6956,7 +6882,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7061,11 +6987,9 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7083,19 +7007,23 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7131,19 +7059,17 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>96</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7155,20 +7081,22 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7177,7 +7105,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7186,22 +7114,22 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7226,13 +7154,11 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7250,7 +7176,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7265,15 +7191,15 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7293,23 +7219,19 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7357,7 +7279,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7369,29 +7291,29 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7400,23 +7322,21 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>361</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7440,54 +7360,54 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>364</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7495,7 +7415,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>81</v>
@@ -7507,25 +7427,29 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>74</v>
@@ -7567,7 +7491,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7579,29 +7503,29 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7610,19 +7534,19 @@
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>90</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>91</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7660,46 +7584,44 @@
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7708,7 +7630,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7717,19 +7639,21 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7777,30 +7701,30 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7811,7 +7735,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -7820,22 +7744,20 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7872,23 +7794,25 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
@@ -7897,19 +7821,17 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>351</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7927,22 +7849,22 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7967,11 +7889,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>382</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -7989,13 +7913,13 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
@@ -8004,17 +7928,19 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8032,19 +7958,23 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8068,13 +7998,11 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -8092,41 +8020,41 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -8138,17 +8066,15 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8185,31 +8111,31 @@
         <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>86</v>
@@ -8220,18 +8146,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8240,29 +8166,27 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>90</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>74</v>
@@ -8292,42 +8216,42 @@
         <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>392</v>
+        <v>86</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8335,7 +8259,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>81</v>
@@ -8347,27 +8271,29 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>74</v>
@@ -8409,7 +8335,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8424,15 +8350,15 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8452,21 +8378,21 @@
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
       </c>
@@ -8514,7 +8440,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8529,15 +8455,15 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8557,20 +8483,20 @@
         <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8619,7 +8545,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8634,15 +8560,15 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8662,22 +8588,20 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8726,7 +8650,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8741,19 +8665,17 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8771,22 +8693,22 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8811,11 +8733,13 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8833,13 +8757,13 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
@@ -8848,15 +8772,15 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8876,19 +8800,23 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8936,7 +8864,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8948,22 +8876,22 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8979,20 +8907,18 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9029,19 +8955,19 @@
         <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>96</v>
+        <v>409</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9053,18 +8979,18 @@
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9072,7 +8998,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>81</v>
@@ -9084,29 +9010,25 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>427</v>
+        <v>74</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>74</v>
@@ -9148,7 +9070,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9160,29 +9082,29 @@
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>392</v>
+        <v>86</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9191,19 +9113,19 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>396</v>
+        <v>91</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>397</v>
+        <v>92</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9241,42 +9163,42 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>96</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9296,20 +9218,22 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9334,13 +9258,11 @@
         <v>74</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
@@ -9358,7 +9280,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9373,15 +9295,15 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9401,20 +9323,22 @@
         <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9451,19 +9375,17 @@
         <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9472,23 +9394,25 @@
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9506,22 +9430,22 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9570,7 +9494,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9579,21 +9503,21 @@
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9613,22 +9537,22 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>129</v>
+        <v>439</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9665,19 +9589,17 @@
         <v>74</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB74" s="2"/>
       <c r="AC74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9692,17 +9614,19 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>359</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9711,7 +9635,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
@@ -9720,19 +9644,23 @@
         <v>74</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9780,32 +9708,34 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>432</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9826,16 +9756,20 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>83</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9883,7 +9817,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9892,32 +9826,34 @@
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>86</v>
+        <v>454</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>74</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C77" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -9929,18 +9865,20 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
@@ -9976,46 +9914,44 @@
         <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>86</v>
+        <v>429</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10024,7 +9960,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>74</v>
@@ -10036,16 +9972,20 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10093,30 +10033,30 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>96</v>
+        <v>459</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>447</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10136,22 +10076,22 @@
         <v>74</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10176,11 +10116,13 @@
         <v>74</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="X79" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y79" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>74</v>
@@ -10198,7 +10140,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10207,21 +10149,21 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10244,19 +10186,19 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10293,17 +10235,19 @@
         <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10312,878 +10256,16 @@
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB82" s="2"/>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -536,32 +536,33 @@
     <t>Dosage.timing.repeat.bounds[x]</t>
   </si>
   <si>
+    <t>Duration
+RangePeriod</t>
+  </si>
+  <si>
+    <t>服用・注射開始日から服用・注射終了日までの全日数</t>
+  </si>
+  <si>
+    <t>服用・注射開始日から服用・注射終了日までの全日数。実投与日数ではないことに注意する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>boundsDuration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
-    <t>服用・注射開始日から服用・注射終了日までの全日数</t>
-  </si>
-  <si>
-    <t>服用・注射開始日から服用・注射終了日までの全日数。実投与日数ではないことに注意する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>IVL(TS) used in a QSI</t>
-  </si>
-  <si>
-    <t>boundsDuration</t>
-  </si>
-  <si>
     <t>Dosage.timing.repeat.bounds[x].id</t>
   </si>
   <si>
@@ -1314,7 +1315,7 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1328,6 +1329,9 @@
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1362,7 +1366,7 @@
   </si>
   <si>
     <t>Ratio
-RangeQuantity</t>
+RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>薬剤の投与量速度</t>
@@ -1429,10 +1433,6 @@
   </si>
   <si>
     <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
   </si>
   <si>
     <t>投与速度(量/時間)を指定する</t>
@@ -3906,10 +3906,10 @@
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3924,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3935,7 +3935,7 @@
         <v>167</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
@@ -3957,7 +3957,7 @@
         <v>108</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>169</v>
@@ -4014,7 +4014,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4029,7 +4029,7 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -9382,7 +9382,7 @@
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>421</v>
@@ -9394,16 +9394,16 @@
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73">
@@ -9411,7 +9411,7 @@
         <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>74</v>
@@ -9433,16 +9433,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>426</v>
@@ -9503,21 +9503,21 @@
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9540,19 +9540,19 @@
         <v>108</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9596,10 +9596,10 @@
         <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9614,18 +9614,18 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>74</v>
@@ -9647,19 +9647,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9708,7 +9708,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9717,13 +9717,13 @@
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>113</v>
@@ -9731,10 +9731,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
@@ -9756,19 +9756,19 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9817,7 +9817,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9826,24 +9826,24 @@
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
@@ -9865,7 +9865,7 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>458</v>
@@ -9877,7 +9877,7 @@
         <v>425</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -9926,7 +9926,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -9935,16 +9935,16 @@
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78">
@@ -9981,7 +9981,7 @@
         <v>461</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>462</v>
@@ -10042,13 +10042,13 @@
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>113</v>
@@ -10079,7 +10079,7 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>464</v>
@@ -10149,16 +10149,16 @@
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80">
@@ -10186,7 +10186,7 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>468</v>
@@ -10256,16 +10256,16 @@
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -432,7 +432,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMIAdditional_VS</t>
   </si>
   <si>
     <t>RXO-7</t>
@@ -967,7 +967,7 @@
 【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUsageJAMI_VS</t>
   </si>
   <si>
     <t>Timing.code</t>
@@ -1015,7 +1015,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1037,7 +1037,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1126,7 +1126,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>Dosage.method.coding.id</t>
@@ -1258,7 +1258,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1306,7 +1306,7 @@
     <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>RXO-21; RXE-23</t>
@@ -1809,7 +1809,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.4375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -1040,7 +1040,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -2064,13 +2068,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2136,7 +2140,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -2144,10 +2148,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2158,7 +2162,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -2170,13 +2174,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2227,13 +2231,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -2242,7 +2246,7 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -2250,14 +2254,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2276,16 +2280,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2323,19 +2327,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -2347,10 +2351,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -2358,13 +2362,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -2374,7 +2378,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -2386,13 +2390,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2443,7 +2447,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2455,7 +2459,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2466,13 +2470,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
@@ -2482,7 +2486,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2494,13 +2498,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2551,7 +2555,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2563,7 +2567,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2574,14 +2578,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2594,25 +2598,25 @@
         <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -2661,7 +2665,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2673,10 +2677,10 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2684,10 +2688,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2698,7 +2702,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2707,22 +2711,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2771,33 +2775,33 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2808,7 +2812,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2817,22 +2821,22 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2881,33 +2885,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2927,22 +2931,22 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2967,11 +2971,11 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2989,7 +2993,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3001,21 +3005,21 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3026,7 +3030,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -3035,19 +3039,19 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3097,33 +3101,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3134,7 +3138,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3146,19 +3150,19 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3207,33 +3211,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3244,7 +3248,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -3256,13 +3260,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3313,13 +3317,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -3328,7 +3332,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3336,14 +3340,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3362,16 +3366,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3409,19 +3413,19 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3433,10 +3437,10 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3444,14 +3448,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3464,25 +3468,25 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3531,7 +3535,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3543,10 +3547,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3554,10 +3558,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3577,20 +3581,20 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3639,7 +3643,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3651,10 +3655,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3662,10 +3666,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3676,7 +3680,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3685,20 +3689,20 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3747,22 +3751,22 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3770,10 +3774,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3784,7 +3788,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3796,13 +3800,13 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3853,13 +3857,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3868,7 +3872,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3876,14 +3880,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3902,16 +3906,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3949,19 +3953,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3973,10 +3977,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3984,10 +3988,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3998,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4007,16 +4011,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4055,32 +4059,32 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4088,13 +4092,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4108,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4113,16 +4117,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4173,22 +4177,22 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4196,10 +4200,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4210,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4222,13 +4226,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4279,13 +4283,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4294,7 +4298,7 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4302,14 +4306,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4328,16 +4332,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4375,19 +4379,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4399,10 +4403,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4410,10 +4414,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4424,7 +4428,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4433,22 +4437,22 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4497,33 +4501,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4534,35 +4538,35 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -4583,13 +4587,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4607,33 +4611,33 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4644,7 +4648,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4653,27 +4657,27 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>76</v>
@@ -4715,33 +4719,33 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4752,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4761,27 +4765,27 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>76</v>
@@ -4823,33 +4827,33 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4860,7 +4864,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4869,29 +4873,29 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>76</v>
@@ -4933,33 +4937,33 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4970,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4979,22 +4983,22 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5043,22 +5047,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5066,10 +5070,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5080,7 +5084,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5089,19 +5093,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5151,22 +5155,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5174,10 +5178,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5188,7 +5192,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5197,22 +5201,22 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5261,22 +5265,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5284,10 +5288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5298,7 +5302,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5307,22 +5311,22 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5371,22 +5375,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5394,10 +5398,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5408,7 +5412,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5417,19 +5421,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5455,13 +5459,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5479,22 +5483,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5502,10 +5506,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5516,7 +5520,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5525,26 +5529,26 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>76</v>
@@ -5589,22 +5593,22 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5626,7 +5630,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5635,19 +5639,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5697,22 +5701,22 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5720,10 +5724,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5734,7 +5738,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5743,19 +5747,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5805,22 +5809,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5828,10 +5832,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5842,7 +5846,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5851,19 +5855,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5913,22 +5917,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5936,10 +5940,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5950,7 +5954,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5959,19 +5963,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5997,13 +6001,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6021,22 +6025,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6044,10 +6048,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6067,19 +6071,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6105,11 +6109,11 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6127,7 +6131,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6139,10 +6143,10 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6150,10 +6154,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6173,19 +6177,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6235,7 +6239,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6247,10 +6251,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6258,10 +6262,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6281,22 +6285,22 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6321,13 +6325,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6345,7 +6349,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6357,10 +6361,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6368,10 +6372,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6382,7 +6386,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6391,19 +6395,19 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6453,22 +6457,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6476,10 +6480,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6490,7 +6494,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6499,19 +6503,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6537,11 +6541,11 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6559,22 +6563,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6582,10 +6586,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6596,7 +6600,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6605,19 +6609,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6667,33 +6671,33 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6704,7 +6708,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6713,22 +6717,22 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6753,11 +6757,11 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6775,33 +6779,33 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6812,7 +6816,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6821,22 +6825,22 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6861,11 +6865,11 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6883,33 +6887,33 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6920,7 +6924,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6929,22 +6933,22 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6969,13 +6973,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6993,33 +6997,33 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7030,7 +7034,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7042,13 +7046,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7099,13 +7103,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -7114,7 +7118,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7122,14 +7126,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7148,16 +7152,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7195,19 +7199,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7219,10 +7223,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7230,10 +7234,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7253,22 +7257,22 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7305,17 +7309,17 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7327,24 +7331,24 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7354,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7363,22 +7367,22 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7403,11 +7407,11 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7425,7 +7429,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7437,21 +7441,21 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7462,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7474,13 +7478,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7531,13 +7535,13 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -7546,7 +7550,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7554,14 +7558,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7580,16 +7584,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7627,19 +7631,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7651,10 +7655,10 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7662,10 +7666,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7673,10 +7677,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7685,29 +7689,29 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>76</v>
@@ -7749,33 +7753,33 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7786,7 +7790,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7795,19 +7799,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7857,33 +7861,33 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7894,7 +7898,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7903,20 +7907,20 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7965,33 +7969,33 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8002,7 +8006,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8011,20 +8015,20 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8073,33 +8077,33 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8110,7 +8114,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8119,22 +8123,22 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8183,36 +8187,36 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
@@ -8222,7 +8226,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8231,22 +8235,22 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8271,11 +8275,11 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8293,7 +8297,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8305,21 +8309,21 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8330,7 +8334,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8342,13 +8346,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8399,13 +8403,13 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
@@ -8414,7 +8418,7 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8422,14 +8426,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8448,16 +8452,16 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8495,19 +8499,19 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8519,10 +8523,10 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8530,10 +8534,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8541,10 +8545,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8553,29 +8557,29 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>76</v>
@@ -8617,33 +8621,33 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8654,7 +8658,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8663,19 +8667,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8725,33 +8729,33 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8762,7 +8766,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8771,20 +8775,20 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8833,33 +8837,33 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8870,7 +8874,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8879,20 +8883,20 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8941,33 +8945,33 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8978,7 +8982,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8987,22 +8991,22 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9051,33 +9055,33 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9088,7 +9092,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9097,22 +9101,22 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9161,33 +9165,33 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9207,16 +9211,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9267,7 +9271,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9279,21 +9283,21 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9304,7 +9308,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9316,13 +9320,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9373,13 +9377,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -9388,7 +9392,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9396,14 +9400,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9422,16 +9426,16 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9469,19 +9473,19 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9493,10 +9497,10 @@
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9504,10 +9508,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9518,7 +9522,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9527,22 +9531,22 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -9567,11 +9571,11 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>76</v>
@@ -9589,33 +9593,33 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9626,7 +9630,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9638,19 +9642,19 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9687,46 +9691,46 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>76</v>
@@ -9736,7 +9740,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9748,19 +9752,19 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9809,33 +9813,33 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9846,7 +9850,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9855,22 +9859,22 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9907,46 +9911,46 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9956,7 +9960,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9968,19 +9972,19 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10029,36 +10033,36 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
@@ -10068,7 +10072,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10080,19 +10084,19 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10141,36 +10145,36 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
@@ -10180,7 +10184,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10192,19 +10196,19 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10253,33 +10257,33 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10290,7 +10294,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10302,19 +10306,19 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10363,33 +10367,33 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10400,7 +10404,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10412,19 +10416,19 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10473,33 +10477,33 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10510,7 +10514,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10522,19 +10526,19 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10583,25 +10587,25 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
@@ -2068,13 +2064,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2140,7 +2136,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>76</v>
@@ -2148,10 +2144,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2162,25 +2158,25 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2231,22 +2227,22 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>76</v>
@@ -2254,14 +2250,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2280,16 +2276,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2327,19 +2323,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -2351,10 +2347,10 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>76</v>
@@ -2362,13 +2358,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -2378,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -2390,13 +2386,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2447,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2459,7 +2455,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2470,13 +2466,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
@@ -2486,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2498,13 +2494,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2555,7 +2551,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2567,7 +2563,7 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2578,14 +2574,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2598,25 +2594,25 @@
         <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -2665,7 +2661,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2677,10 +2673,10 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2688,10 +2684,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2702,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2711,22 +2707,22 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2775,33 +2771,33 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK8" t="s" s="2">
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2812,31 +2808,31 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2885,33 +2881,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2931,22 +2927,22 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2971,11 +2967,11 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2993,7 +2989,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3005,21 +3001,21 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK10" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AL10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3030,28 +3026,28 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3101,33 +3097,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AL11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3138,7 +3134,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3150,19 +3146,19 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3211,33 +3207,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3248,25 +3244,25 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3317,22 +3313,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -3340,14 +3336,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3366,16 +3362,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3413,19 +3409,19 @@
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3437,10 +3433,10 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3448,14 +3444,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3468,25 +3464,25 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3535,7 +3531,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3547,10 +3543,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3558,10 +3554,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3581,20 +3577,20 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3643,7 +3639,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3655,10 +3651,10 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3666,10 +3662,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3680,7 +3676,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3689,20 +3685,20 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3751,22 +3747,22 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3774,10 +3770,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3788,25 +3784,25 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3857,22 +3853,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3880,14 +3876,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3906,16 +3902,16 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3953,19 +3949,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3977,10 +3973,10 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3988,10 +3984,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4002,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4011,16 +4007,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4059,32 +4055,32 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4092,13 +4088,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
@@ -4108,7 +4104,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -4117,16 +4113,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4177,22 +4173,22 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4200,10 +4196,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4214,25 +4210,25 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4283,22 +4279,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4306,14 +4302,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4332,16 +4328,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4379,19 +4375,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4403,10 +4399,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4414,10 +4410,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4428,7 +4424,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4437,22 +4433,22 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4501,33 +4497,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4538,106 +4534,106 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="P25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q25" t="s" s="2">
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4648,104 +4644,104 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4756,7 +4752,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4765,95 +4761,95 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="S27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI27" t="s" s="2">
+      <c r="AJ27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AL27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4864,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4873,97 +4869,97 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4974,7 +4970,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4983,22 +4979,22 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5047,22 +5043,22 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5070,10 +5066,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5084,7 +5080,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5093,19 +5089,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5155,22 +5151,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5178,10 +5174,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5192,7 +5188,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5201,22 +5197,22 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5265,22 +5261,22 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5288,10 +5284,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5302,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5311,22 +5307,22 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="N32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5375,22 +5371,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5398,10 +5394,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5412,7 +5408,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5421,19 +5417,19 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5459,46 +5455,46 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5506,10 +5502,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5520,7 +5516,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5529,86 +5525,86 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="R34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5616,10 +5612,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5630,7 +5626,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5639,19 +5635,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5701,22 +5697,22 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5724,10 +5720,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5738,7 +5734,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5747,19 +5743,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5809,22 +5805,22 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5832,10 +5828,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5846,7 +5842,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5855,19 +5851,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5917,22 +5913,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5940,10 +5936,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5954,7 +5950,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5963,19 +5959,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6001,14 +5997,14 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6025,22 +6021,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6048,10 +6044,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6071,19 +6067,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6109,29 +6105,29 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6143,10 +6139,10 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6154,10 +6150,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6177,19 +6173,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6239,7 +6235,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6251,10 +6247,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6262,10 +6258,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6285,22 +6281,22 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6325,31 +6321,31 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z41" t="s" s="2">
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6361,10 +6357,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6372,10 +6368,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6386,7 +6382,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6395,19 +6391,19 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6457,22 +6453,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6480,10 +6476,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6494,7 +6490,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6503,19 +6499,19 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6541,44 +6537,44 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF43" t="s" s="2">
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6586,10 +6582,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6600,7 +6596,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6609,19 +6605,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6671,33 +6667,33 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6708,7 +6704,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6717,22 +6713,22 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6757,55 +6753,55 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6816,7 +6812,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6825,22 +6821,22 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6865,55 +6861,55 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6924,7 +6920,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6933,22 +6929,22 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6973,57 +6969,57 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7034,25 +7030,25 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7103,22 +7099,22 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7126,14 +7122,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7152,16 +7148,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7199,19 +7195,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC49" t="s" s="2">
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE49" t="s" s="2">
+      <c r="AF49" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7223,10 +7219,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7234,10 +7230,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7257,22 +7253,22 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7309,17 +7305,17 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7331,24 +7327,24 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>76</v>
@@ -7358,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7367,22 +7363,22 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7407,11 +7403,11 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7429,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7441,21 +7437,21 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7466,25 +7462,25 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7535,22 +7531,22 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7558,14 +7554,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7584,16 +7580,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7631,19 +7627,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC53" t="s" s="2">
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7655,10 +7651,10 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7666,10 +7662,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7677,10 +7673,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7689,97 +7685,97 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="S54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF54" t="s" s="2">
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7790,28 +7786,28 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7861,33 +7857,33 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7898,7 +7894,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7907,20 +7903,20 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7969,33 +7965,33 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8006,29 +8002,29 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8077,33 +8073,33 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8114,7 +8110,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8123,22 +8119,22 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8187,36 +8183,36 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
@@ -8226,7 +8222,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8235,22 +8231,22 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="N59" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8275,11 +8271,11 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8297,7 +8293,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8309,21 +8305,21 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8334,25 +8330,25 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8403,22 +8399,22 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
@@ -8426,14 +8422,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8452,16 +8448,16 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8499,19 +8495,19 @@
         <v>76</v>
       </c>
       <c r="AB61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC61" t="s" s="2">
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
+      <c r="AF61" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8523,10 +8519,10 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8534,10 +8530,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8545,10 +8541,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8557,29 +8553,29 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>76</v>
@@ -8621,33 +8617,33 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8658,28 +8654,28 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8729,33 +8725,33 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8766,7 +8762,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8775,20 +8771,20 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8837,33 +8833,33 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8874,29 +8870,29 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8945,33 +8941,33 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8982,7 +8978,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8991,22 +8987,22 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9055,33 +9051,33 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9092,31 +9088,31 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="L67" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9165,33 +9161,33 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9211,16 +9207,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9271,7 +9267,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9283,21 +9279,21 @@
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9308,25 +9304,25 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9377,22 +9373,22 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9400,14 +9396,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9426,16 +9422,16 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9473,19 +9469,19 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC70" t="s" s="2">
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9497,10 +9493,10 @@
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9508,10 +9504,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9522,7 +9518,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9531,22 +9527,22 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -9571,55 +9567,55 @@
         <v>76</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9630,7 +9626,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9642,19 +9638,19 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9691,46 +9687,46 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI72" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI72" t="s" s="2">
+      <c r="AJ72" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>76</v>
@@ -9740,7 +9736,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9752,19 +9748,19 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="O73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9813,33 +9809,33 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9850,7 +9846,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9859,22 +9855,22 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9911,46 +9907,46 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9960,7 +9956,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9972,19 +9968,19 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10033,36 +10029,36 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AL75" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
@@ -10072,7 +10068,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -10084,19 +10080,19 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="O76" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10145,36 +10141,36 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AL76" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>76</v>
@@ -10184,7 +10180,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10196,19 +10192,19 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10257,33 +10253,33 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10294,7 +10290,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10306,19 +10302,19 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -10367,33 +10363,33 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AL78" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10404,7 +10400,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -10416,19 +10412,19 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10477,33 +10473,33 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ79" t="s" s="2">
+      <c r="AK79" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10514,7 +10510,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10526,19 +10522,19 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -10587,25 +10583,25 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ80" t="s" s="2">
+      <c r="AK80" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -272,10 +272,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -295,13 +295,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -317,8 +317,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Dosage.extension:periodOfUse</t>
@@ -363,14 +363,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -398,7 +399,7 @@
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -476,11 +477,12 @@
     <t>投与日時</t>
   </si>
   <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
+    <t>複数回発生する可能性のあるイベントの発生について説明します。タイミングスケジュールは、イベントが発生することが予想または要求される時期を指定するために使用され、過去または進行中のイベントの概要を表すためにも使用できます。簡単にするために、タイミングコンポーネントの定義は「将来の」イベントとして表現されますが、そのようなコンポーネントは歴史的または進行中のイベントを説明するためにも使用できます。
+タイミングスケジュールは、イベントが発生したときのイベントおよび/または基準のリストであり、構造化された形式またはコードとして表現できます。イベントと繰り返し仕様の両方が提供される場合、イベントのリストは、繰り返し構造の情報の解釈として理解されるべきです。 / Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬を与えるためのタイミングスケジュール。このデータ型により、さまざまな式が可能になります。たとえば、「8時間ごと」。"一日に三回";「2011年12月23日から10日間の朝食の1/2の1/2：」;「2013年10月15日、2013年10月17日、2013年11月1日」。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>QSET&lt;TS&gt; (GTS)</t>
@@ -508,7 +510,7 @@
     <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -536,8 +538,8 @@
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -607,10 +609,10 @@
     <t>投薬日数</t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -632,22 +634,22 @@
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -674,7 +676,7 @@
     <t>投薬日数の単位文字列。日で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -705,7 +707,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -733,10 +735,10 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -764,7 +766,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -824,13 +826,13 @@
     <t>Dosage.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -854,7 +856,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -914,7 +916,7 @@
     <t>Dosage.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -963,7 +965,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -997,7 +999,7 @@
     <t>Dosage.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -1030,7 +1032,7 @@
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+    <t>boolean = trueを設定することにより、理由なしに「必要に応じて」表現できます。この場合、codeableconceptは存在しません。または、Codeableconceptを含めることにより、「必要に応じて」理由で「必要に応じて」表現することができます。この場合、ブール値は真であると想定されています。ブール値をfalseに設定すると、用量はスケジュールに従って与えられ、「PRN」または「必要に応じて」ではありません。 / Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
@@ -1052,7 +1054,7 @@
 【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
@@ -1074,7 +1076,7 @@
 【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+    <t>患者の体への、または患者の体内への治療剤の投与のルートまたは生理学的経路を指定するコード。 / A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
@@ -1101,7 +1103,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1126,16 +1128,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -1190,16 +1192,16 @@
     <t>Dosage.method.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -1220,13 +1222,13 @@
     <t>Dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1244,13 +1246,13 @@
     <t>Dosage.method.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1268,13 +1270,13 @@
     <t>Dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1292,16 +1294,16 @@
     <t>Dosage.method.coding.userSelected</t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1407,16 +1409,16 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>closed</t>
@@ -1426,8 +1428,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1466,12 +1468,14 @@
     <t>薬剤が投与される量の速度</t>
   </si>
   <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.+    <t>レートとデスケーティティの両方を供給して、薬の投与と供給の方法についての詳細を提供することができます。レートが時間の経過とともに変化することを目的としている場合、ローカルのルール/規制に応じて、各変更は、更新されたレートのある薬物療法の新しいバージョンとしてキャプチャするか、新しいレートで新しい薬物採取でキャプチャされる必要があります。++レート（100 ml/hour）を使用して、時間の経過とともにレートを指定することができます。RateQuantityアプローチでは、時間が分母として指定されている特定の比率ではなく、ML/時間が含まれているUCUMグラマーを解析する機能をシステムに持つ必要があります。2時間にわたって500mlなどのレートが指定されている場合、250 mg/時のレートの量を使用して指定するよりも、定量的に正しい場合があります。 / It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.  It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -1493,11 +1497,11 @@
     <t>１日当たりでの薬剤の投入量</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -1519,8 +1523,8 @@
     <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:存在する場合、低い値は高よりも低い値を持つものとします / If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
@@ -1548,7 +1552,7 @@
     <t>単位時間当たりの投薬量の上限</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+    <t>期間にわたって被験者に投与される可能性のある治療物質の最大総量。たとえば、24時間で1000mg。 / The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
@@ -1560,7 +1564,7 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+    <t>投与ごとの被験者に投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -1569,7 +1573,7 @@
     <t>生涯の投薬量の上限</t>
   </si>
   <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+    <t>被験者の寿命ごとに投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1913,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="104.59765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="77.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -1405,23 +1405,18 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
-    <t>固定数量（コンパレータなし） / A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>1回投与量</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
   </si>
   <si>
     <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1436,23 +1431,6 @@
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]:doseQuantity</t>
-  </si>
-  <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>1回投与量</t>
-  </si>
-  <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
-【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1478,6 +1456,9 @@
     <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
@@ -1539,7 +1520,14 @@
     <t>rateQuantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>投与速度(量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -1880,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL80"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9652,13 +9640,13 @@
         <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9695,14 +9683,16 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>450</v>
@@ -9714,28 +9704,26 @@
         <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9753,22 +9741,22 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9805,19 +9793,17 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9826,26 +9812,28 @@
         <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>458</v>
+        <v>124</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9863,22 +9851,22 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9915,17 +9903,19 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AC74" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -9934,27 +9924,27 @@
         <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>473</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>473</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9976,19 +9966,19 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10037,7 +10027,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10046,27 +10036,27 @@
         <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>117</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>76</v>
@@ -10088,19 +10078,19 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10149,7 +10139,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10158,28 +10148,26 @@
         <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AL76" t="s" s="2">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10200,19 +10188,19 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10261,7 +10249,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10270,16 +10258,16 @@
         <v>83</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>460</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
@@ -10310,16 +10298,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N78" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>495</v>
@@ -10380,16 +10368,16 @@
         <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AL78" t="s" s="2">
-        <v>117</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79">
@@ -10420,7 +10408,7 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>497</v>
@@ -10429,10 +10417,10 @@
         <v>497</v>
       </c>
       <c r="N79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O79" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -10490,126 +10478,16 @@
         <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -145,6 +145,10 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -283,10 +287,6 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>.text</t>
@@ -1898,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1923,7 +1923,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1935,13 +1935,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1992,13 +1992,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2007,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -2015,14 +2015,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -2041,16 +2041,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2088,19 +2088,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -2112,10 +2112,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -2139,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -2151,13 +2151,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2208,7 +2208,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -2220,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>38</v>
@@ -2247,7 +2247,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2259,13 +2259,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2316,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -2328,7 +2328,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2339,14 +2339,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2359,25 +2359,25 @@
         <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>38</v>
@@ -2426,7 +2426,7 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -2438,10 +2438,10 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>38</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2463,7 +2463,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -2472,22 +2472,22 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>38</v>
@@ -2536,19 +2536,19 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>87</v>
@@ -2573,7 +2573,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -2582,10 +2582,10 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>90</v>
@@ -2652,13 +2652,13 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>87</v>
@@ -2692,7 +2692,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>96</v>
@@ -2766,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>87</v>
@@ -2791,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2800,10 +2800,10 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>105</v>
@@ -2868,13 +2868,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>87</v>
@@ -2899,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2978,19 +2978,19 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -3009,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3021,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3078,13 +3078,13 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -3093,7 +3093,7 @@
         <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3127,16 +3127,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3174,19 +3174,19 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3198,10 +3198,10 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>38</v>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3229,25 +3229,25 @@
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3296,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3308,10 +3308,10 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -3342,7 +3342,7 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>118</v>
@@ -3416,7 +3416,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>123</v>
@@ -3441,7 +3441,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3450,7 +3450,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>125</v>
@@ -3518,7 +3518,7 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -3549,7 +3549,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3561,13 +3561,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3618,13 +3618,13 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
@@ -3633,7 +3633,7 @@
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3667,16 +3667,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3714,19 +3714,19 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3738,10 +3738,10 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3763,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3772,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>135</v>
@@ -3827,7 +3827,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>139</v>
@@ -3836,13 +3836,13 @@
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>140</v>
@@ -3869,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3878,7 +3878,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>143</v>
@@ -3944,13 +3944,13 @@
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>140</v>
@@ -3975,7 +3975,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3987,13 +3987,13 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4044,13 +4044,13 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
@@ -4059,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4093,16 +4093,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4140,19 +4140,19 @@
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4164,10 +4164,10 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
@@ -4189,7 +4189,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4198,7 +4198,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>150</v>
@@ -4268,13 +4268,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>155</v>
@@ -4299,16 +4299,16 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>159</v>
@@ -4378,13 +4378,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>168</v>
@@ -4409,7 +4409,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4418,10 +4418,10 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>172</v>
@@ -4486,13 +4486,13 @@
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>177</v>
@@ -4517,7 +4517,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4526,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>181</v>
@@ -4594,13 +4594,13 @@
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>188</v>
@@ -4625,7 +4625,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4634,7 +4634,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>159</v>
@@ -4704,13 +4704,13 @@
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>197</v>
@@ -4735,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4744,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>199</v>
@@ -4814,13 +4814,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>205</v>
@@ -4845,7 +4845,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4854,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>199</v>
@@ -4922,13 +4922,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>205</v>
@@ -4953,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4962,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>150</v>
@@ -5032,13 +5032,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>217</v>
@@ -5063,7 +5063,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5072,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>150</v>
@@ -5142,13 +5142,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>217</v>
@@ -5173,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5182,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>159</v>
@@ -5250,13 +5250,13 @@
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>228</v>
@@ -5281,7 +5281,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5290,7 +5290,7 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>199</v>
@@ -5360,13 +5360,13 @@
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>217</v>
@@ -5391,7 +5391,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5400,7 +5400,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>199</v>
@@ -5468,13 +5468,13 @@
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>217</v>
@@ -5499,7 +5499,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5508,7 +5508,7 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>150</v>
@@ -5576,13 +5576,13 @@
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>217</v>
@@ -5607,7 +5607,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5616,7 +5616,7 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>150</v>
@@ -5684,13 +5684,13 @@
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>217</v>
@@ -5715,7 +5715,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5724,7 +5724,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>159</v>
@@ -5792,13 +5792,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>228</v>
@@ -5832,7 +5832,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>159</v>
@@ -5904,10 +5904,10 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
@@ -5938,7 +5938,7 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>259</v>
@@ -6012,10 +6012,10 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>38</v>
@@ -6046,7 +6046,7 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>159</v>
@@ -6122,7 +6122,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>272</v>
@@ -6147,7 +6147,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6156,7 +6156,7 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>274</v>
@@ -6224,13 +6224,13 @@
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>278</v>
@@ -6255,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6264,7 +6264,7 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>96</v>
@@ -6330,13 +6330,13 @@
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>285</v>
@@ -6361,7 +6361,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6370,7 +6370,7 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>287</v>
@@ -6438,13 +6438,13 @@
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>291</v>
@@ -6469,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6478,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>96</v>
@@ -6546,13 +6546,13 @@
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>299</v>
@@ -6577,7 +6577,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6586,7 +6586,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>96</v>
@@ -6654,13 +6654,13 @@
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>306</v>
@@ -6685,7 +6685,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6694,7 +6694,7 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>96</v>
@@ -6764,13 +6764,13 @@
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>315</v>
@@ -6795,7 +6795,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6807,13 +6807,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6864,13 +6864,13 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
@@ -6879,7 +6879,7 @@
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6913,16 +6913,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6960,19 +6960,19 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6984,10 +6984,10 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
@@ -7018,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>320</v>
@@ -7077,7 +7077,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>326</v>
@@ -7092,7 +7092,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>327</v>
@@ -7119,7 +7119,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7128,7 +7128,7 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>320</v>
@@ -7202,7 +7202,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>327</v>
@@ -7227,7 +7227,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7239,13 +7239,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7296,13 +7296,13 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
@@ -7311,7 +7311,7 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>38</v>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7345,16 +7345,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7392,19 +7392,19 @@
         <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7416,10 +7416,10 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>38</v>
@@ -7438,10 +7438,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7450,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>181</v>
@@ -7520,13 +7520,13 @@
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>348</v>
@@ -7551,7 +7551,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7560,10 +7560,10 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>352</v>
@@ -7628,13 +7628,13 @@
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>356</v>
@@ -7659,7 +7659,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7668,7 +7668,7 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>159</v>
@@ -7736,13 +7736,13 @@
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>364</v>
@@ -7767,7 +7767,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -7776,10 +7776,10 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>368</v>
@@ -7844,13 +7844,13 @@
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>372</v>
@@ -7875,7 +7875,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -7884,7 +7884,7 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>287</v>
@@ -7954,13 +7954,13 @@
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>381</v>
@@ -7987,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -7996,7 +7996,7 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>320</v>
@@ -8070,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>327</v>
@@ -8095,7 +8095,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8107,13 +8107,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8164,13 +8164,13 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
@@ -8179,7 +8179,7 @@
         <v>38</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>38</v>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8213,16 +8213,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8260,19 +8260,19 @@
         <v>38</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8284,10 +8284,10 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>38</v>
@@ -8306,10 +8306,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8318,7 +8318,7 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>181</v>
@@ -8388,13 +8388,13 @@
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>348</v>
@@ -8419,7 +8419,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8428,10 +8428,10 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>352</v>
@@ -8496,13 +8496,13 @@
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>356</v>
@@ -8527,7 +8527,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8536,7 +8536,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>159</v>
@@ -8604,13 +8604,13 @@
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>364</v>
@@ -8635,7 +8635,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -8644,10 +8644,10 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>368</v>
@@ -8712,13 +8712,13 @@
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>372</v>
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -8752,7 +8752,7 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>287</v>
@@ -8822,13 +8822,13 @@
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>381</v>
@@ -8853,7 +8853,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -8862,10 +8862,10 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>90</v>
@@ -8932,13 +8932,13 @@
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>398</v>
@@ -8972,7 +8972,7 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>125</v>
@@ -9044,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9069,7 +9069,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9081,13 +9081,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9138,13 +9138,13 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
@@ -9153,7 +9153,7 @@
         <v>38</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>38</v>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9187,16 +9187,16 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9234,19 +9234,19 @@
         <v>38</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9258,10 +9258,10 @@
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>38</v>
@@ -9283,7 +9283,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9292,7 +9292,7 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>96</v>
@@ -9360,13 +9360,13 @@
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -9391,7 +9391,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9470,7 +9470,7 @@
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>417</v>
@@ -9501,7 +9501,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -9510,7 +9510,7 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>422</v>
@@ -9578,13 +9578,13 @@
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>428</v>
@@ -9611,7 +9611,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -9690,7 +9690,7 @@
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>417</v>
@@ -9702,7 +9702,7 @@
         <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -9723,7 +9723,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -9802,7 +9802,7 @@
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>417</v>
@@ -9835,7 +9835,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -9914,7 +9914,7 @@
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>417</v>
@@ -9945,7 +9945,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10024,7 +10024,7 @@
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>417</v>
@@ -10036,7 +10036,7 @@
         <v>436</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
@@ -10055,7 +10055,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -10134,7 +10134,7 @@
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>417</v>
@@ -10165,7 +10165,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -10244,7 +10244,7 @@
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>417</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -621,7 +621,7 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -914,7 +914,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。  
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdosage.xlsx
@@ -735,7 +735,7 @@
     <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
